--- a/2303/slides_cycles_ccf.xlsx
+++ b/2303/slides_cycles_ccf.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Old Version" sheetId="1" r:id="rId1"/>
     <sheet name="New Improved" sheetId="4" r:id="rId2"/>
-    <sheet name="More Improved" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="More Improved" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
@@ -755,7 +755,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1098,11 +1097,11 @@
         </c:ser>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="99734656"/>
-        <c:axId val="99757440"/>
+        <c:axId val="58292864"/>
+        <c:axId val="58302848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99734656"/>
+        <c:axId val="58292864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1110,7 +1109,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99757440"/>
+        <c:crossAx val="58302848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1119,7 +1118,7 @@
         <c:tickMarkSkip val="24"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99757440"/>
+        <c:axId val="58302848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1129,7 +1128,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99734656"/>
+        <c:crossAx val="58292864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -1162,7 +1161,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1505,11 +1503,11 @@
         </c:ser>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="111496192"/>
-        <c:axId val="111510272"/>
+        <c:axId val="58323328"/>
+        <c:axId val="58324864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111496192"/>
+        <c:axId val="58323328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,7 +1515,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111510272"/>
+        <c:crossAx val="58324864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1526,7 +1524,7 @@
         <c:tickMarkSkip val="24"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111510272"/>
+        <c:axId val="58324864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1536,7 +1534,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111496192"/>
+        <c:crossAx val="58323328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -1911,11 +1909,11 @@
         </c:ser>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="111530368"/>
-        <c:axId val="111531904"/>
+        <c:axId val="93808128"/>
+        <c:axId val="93809664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111530368"/>
+        <c:axId val="93808128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1923,7 +1921,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111531904"/>
+        <c:crossAx val="93809664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1932,7 +1930,7 @@
         <c:tickMarkSkip val="24"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111531904"/>
+        <c:axId val="93809664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1942,7 +1940,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111530368"/>
+        <c:crossAx val="93808128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -2317,11 +2315,11 @@
         </c:ser>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="62882944"/>
-        <c:axId val="62884480"/>
+        <c:axId val="93846144"/>
+        <c:axId val="93847936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62882944"/>
+        <c:axId val="93846144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2329,7 +2327,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62884480"/>
+        <c:crossAx val="93847936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2337,7 +2335,7 @@
         <c:tickMarkSkip val="24"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62884480"/>
+        <c:axId val="93847936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2347,7 +2345,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62882944"/>
+        <c:crossAx val="93846144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
